--- a/biology/Botanique/Plant_de_Brunel/Plant_de_Brunel.xlsx
+++ b/biology/Botanique/Plant_de_Brunel/Plant_de_Brunel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le  Plant de Brunel est un cépage français de raisins noirs.
@@ -512,10 +524,12 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cépage de cuve est issu d’un croisement spontané récent entre Grenache et Jurançon noir et inscrit au catalogue officiel depuis 2010.
-Un seul clone est agréé et porte le numéro 1123[1].
+Un seul clone est agréé et porte le numéro 1123.
 Ce cépage est originaire du Sud de l'Ardèche
 </t>
         </is>
@@ -545,7 +559,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Feuilles adultes à forte densité de poils couchés ; pétioles rouges
 Port érigé
@@ -578,7 +594,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cépage est moins productif que le Grenache noir. Ce cépage est très fertile (nombreuses grappes par souche), mais ces grappes sont petites et assez lâches. Il est peu sensible à la pourriture grise et au mildiou.
 </t>
@@ -609,7 +627,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Plant de Brunel N conduit à l’élaboration d’un vin plus coloré et plus tannique que le vin de Grenache noir. Le degré et l'acidité à maturité sont comparables à ceux du Grenache.
 </t>
@@ -641,6 +661,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
